--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lama1-Itgb8.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lama1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Itgb8</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,19 +528,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H2">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,31 +552,31 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.41258458515025</v>
+        <v>0.178057</v>
       </c>
       <c r="N2">
-        <v>2.41258458515025</v>
+        <v>0.534171</v>
       </c>
       <c r="O2">
-        <v>0.2081504293220339</v>
+        <v>0.01072706596418309</v>
       </c>
       <c r="P2">
-        <v>0.2081504293220339</v>
+        <v>0.01486309420510698</v>
       </c>
       <c r="Q2">
-        <v>1.194028263170128</v>
+        <v>0.09948727141833333</v>
       </c>
       <c r="R2">
-        <v>1.194028263170128</v>
+        <v>0.8953854427649999</v>
       </c>
       <c r="S2">
-        <v>0.2081504293220339</v>
+        <v>0.01072706596418309</v>
       </c>
       <c r="T2">
-        <v>0.2081504293220339</v>
+        <v>0.01486309420510698</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,19 +590,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H3">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -605,34 +611,158 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.177997250343781</v>
+        <v>2.509764</v>
       </c>
       <c r="N3">
-        <v>9.177997250343781</v>
+        <v>7.529292</v>
       </c>
       <c r="O3">
-        <v>0.791849570677966</v>
+        <v>0.1512010422647355</v>
       </c>
       <c r="P3">
-        <v>0.791849570677966</v>
+        <v>0.2094995353430986</v>
       </c>
       <c r="Q3">
-        <v>4.542343586069834</v>
+        <v>1.40230135442</v>
       </c>
       <c r="R3">
-        <v>4.542343586069834</v>
+        <v>12.62071218978</v>
       </c>
       <c r="S3">
-        <v>0.791849570677966</v>
+        <v>0.1512010422647355</v>
       </c>
       <c r="T3">
-        <v>0.791849570677966</v>
+        <v>0.2094995353430986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.5587383333333333</v>
+      </c>
+      <c r="H4">
+        <v>1.676215</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.05389233333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.161677</v>
+      </c>
+      <c r="O4">
+        <v>0.003246750280137314</v>
+      </c>
+      <c r="P4">
+        <v>0.004498597793214309</v>
+      </c>
+      <c r="Q4">
+        <v>0.03011171250611111</v>
+      </c>
+      <c r="R4">
+        <v>0.271005412555</v>
+      </c>
+      <c r="S4">
+        <v>0.003246750280137314</v>
+      </c>
+      <c r="T4">
+        <v>0.004498597793214309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.5587383333333333</v>
+      </c>
+      <c r="H5">
+        <v>1.676215</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>13.8571405</v>
+      </c>
+      <c r="N5">
+        <v>27.714281</v>
+      </c>
+      <c r="O5">
+        <v>0.8348251414909441</v>
+      </c>
+      <c r="P5">
+        <v>0.7711387726585802</v>
+      </c>
+      <c r="Q5">
+        <v>7.742515587735833</v>
+      </c>
+      <c r="R5">
+        <v>46.455093526415</v>
+      </c>
+      <c r="S5">
+        <v>0.8348251414909441</v>
+      </c>
+      <c r="T5">
+        <v>0.7711387726585802</v>
       </c>
     </row>
   </sheetData>
